--- a/Documents/SE1606_SWP391_Online Shop_Weekly Report_W5.xlsx
+++ b/Documents/SE1606_SWP391_Online Shop_Weekly Report_W5.xlsx
@@ -595,14 +595,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>212063</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>106093</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3277802</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>172698</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -615,8 +615,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8477250"/>
-          <a:ext cx="17995238" cy="9440593"/>
+          <a:off x="0" y="8504464"/>
+          <a:ext cx="8611802" cy="8935698"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1327,7 +1327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>

--- a/Documents/SE1606_SWP391_Online Shop_Weekly Report_W5.xlsx
+++ b/Documents/SE1606_SWP391_Online Shop_Weekly Report_W5.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DDD6A3-FEB5-4878-BB48-C00091CC207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="W2" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="W4" sheetId="2" r:id="rId2"/>
+    <sheet name="W4" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="W5" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0">
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,12 +79,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{2B0745DF-F85D-4778-93FC-881CF7685B53}">
       <text>
         <r>
           <rPr>
@@ -108,7 +110,69 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0">
+    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{87FEE441-2DBD-4E4D-B720-0E814C8E8026}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: issue occurred, no solution yet
+In Progress: occurred and handling issue
+Completed: occurred and handled issue</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pending: just planned, have not started implementing yet
+In Progress: planned and doing, but have not completed yet
+Completed: planned and completed</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="107">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -413,11 +477,65 @@
   <si>
     <t xml:space="preserve">add xml </t>
   </si>
+  <si>
+    <t>&lt;30/5/2022-5/6/2022&gt;</t>
+  </si>
+  <si>
+    <t>Hoàn thành IT2</t>
+  </si>
+  <si>
+    <t>Vẽ mockup 25 màn hình sau</t>
+  </si>
+  <si>
+    <t>Code màn hình Blog List</t>
+  </si>
+  <si>
+    <t>DucLM Support font-end</t>
+  </si>
+  <si>
+    <t>Code màn hình Blog Details</t>
+  </si>
+  <si>
+    <t>Code màn hình User Profile</t>
+  </si>
+  <si>
+    <t>Code màn hình User List</t>
+  </si>
+  <si>
+    <t>Code màn hình Forgot PassWord</t>
+  </si>
+  <si>
+    <t>Vẽ mockup 20 màn hình đầu tiên</t>
+  </si>
+  <si>
+    <t>Không gửi được mail</t>
+  </si>
+  <si>
+    <t>Google chặn phần mềm</t>
+  </si>
+  <si>
+    <t>Lỗi phông phần User Profile</t>
+  </si>
+  <si>
+    <t>Sửa lại Data Diagram</t>
+  </si>
+  <si>
+    <t>HoangNV Sửa lại Data</t>
+  </si>
+  <si>
+    <t>Blog List không truy cập được</t>
+  </si>
+  <si>
+    <t>Servlet không truy cập được đến mail</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Fousdqr6Si4&amp;list=PLRkQNsJPRIBc1liQHJogRpePTAR6bMNXr&amp;index=11&amp;t=176s</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,7 +647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -567,6 +685,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -602,7 +731,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -671,7 +806,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -704,9 +839,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -739,6 +891,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -914,29 +1083,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="71.5703125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="6.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71.5546875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -944,7 +1113,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -952,12 +1121,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -971,7 +1140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -985,7 +1154,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -997,7 +1166,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -1005,12 +1174,12 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -1024,7 +1193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1036,7 +1205,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1048,7 +1217,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1060,7 +1229,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1072,7 +1241,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1084,7 +1253,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -1096,7 +1265,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -1108,12 +1277,12 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
@@ -1127,7 +1296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>56</v>
       </c>
@@ -1141,7 +1310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>55</v>
       </c>
@@ -1155,7 +1324,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>54</v>
       </c>
@@ -1169,7 +1338,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>53</v>
       </c>
@@ -1183,7 +1352,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>52</v>
       </c>
@@ -1197,7 +1366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
@@ -1211,12 +1380,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>4</v>
       </c>
@@ -1230,7 +1399,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
         <v>49</v>
@@ -1242,24 +1411,24 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
@@ -1273,7 +1442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
         <v>57</v>
@@ -1283,25 +1452,25 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1309,13 +1478,13 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C26:C27 C22:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C26:C27 C22:C25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D26" r:id="rId1"/>
-    <hyperlink ref="B37" r:id="rId2"/>
+    <hyperlink ref="D26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B37" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1324,28 +1493,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21ABDD5-61A2-41B1-A4D8-2B6BF8F056CA}">
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="71.5703125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="23.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71.5546875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1353,20 +1522,20 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1388,7 +1557,577 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>2</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>1</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>2</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>3</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>4</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>5</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>6</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>7</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <v>8</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="23"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
+        <v>44711</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
+        <v>44711</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
+        <v>44713</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
+        <v>44715</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
+        <v>44716</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="24">
+        <v>44716</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="14">
+        <v>44724</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:J25"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C28 C6:C8" xr:uid="{4046118E-C35A-48B0-AD50-610CD73C3176}">
+      <formula1>"Pending, In Progress, Completed"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B37" r:id="rId1" xr:uid="{0EF85CC3-330A-42A7-AF85-71F0FE51B6C8}"/>
+    <hyperlink ref="D27" r:id="rId2" xr:uid="{70E2D1B9-04E7-489C-A5B0-449CB0311E90}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71.5546875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1406,7 +2145,7 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1424,7 +2163,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
@@ -1438,7 +2177,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
@@ -1446,7 +2185,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -1457,7 +2196,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
@@ -1477,7 +2216,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1497,7 +2236,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1517,7 +2256,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1537,7 +2276,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1557,7 +2296,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -1577,7 +2316,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -1597,7 +2336,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -1617,7 +2356,7 @@
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -1631,7 +2370,7 @@
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1643,7 +2382,7 @@
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" s="15"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
@@ -1652,7 +2391,7 @@
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
@@ -1663,7 +2402,7 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>35</v>
       </c>
@@ -1683,7 +2422,7 @@
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>44718</v>
       </c>
@@ -1703,7 +2442,7 @@
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>44719</v>
       </c>
@@ -1723,7 +2462,7 @@
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>44720</v>
       </c>
@@ -1743,7 +2482,7 @@
       <c r="I26" s="20"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>44721</v>
       </c>
@@ -1757,7 +2496,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>44722</v>
       </c>
@@ -1771,7 +2510,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>44723</v>
       </c>
@@ -1785,18 +2524,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
@@ -1810,7 +2549,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
         <v>66</v>
@@ -1822,24 +2561,24 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
@@ -1853,7 +2592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="13" t="s">
         <v>57</v>
@@ -1863,25 +2602,25 @@
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1892,13 +2631,13 @@
     <mergeCell ref="E5:J26"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C24:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C24:C30" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1" display="https://www.youtube.com/watch?v=Fousdqr6Si4&amp;list=PLRkQNsJPRIBc1liQHJogRpePTAR6bMNXr&amp;index=11&amp;t=176s"/>
-    <hyperlink ref="B39" r:id="rId2"/>
+    <hyperlink ref="D28" r:id="rId1" display="https://www.youtube.com/watch?v=Fousdqr6Si4&amp;list=PLRkQNsJPRIBc1liQHJogRpePTAR6bMNXr&amp;index=11&amp;t=176s" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B39" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>

--- a/Documents/SE1606_SWP391_Online Shop_Weekly Report_W5.xlsx
+++ b/Documents/SE1606_SWP391_Online Shop_Weekly Report_W5.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DDD6A3-FEB5-4878-BB48-C00091CC207C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="W2" sheetId="1" state="hidden" r:id="rId1"/>
@@ -17,12 +16,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,12 +78,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{2B0745DF-F85D-4778-93FC-881CF7685B53}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="0" shapeId="0" xr:uid="{87FEE441-2DBD-4E4D-B720-0E814C8E8026}">
+    <comment ref="C22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,12 +140,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="C5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="C23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="119">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -427,57 +426,18 @@
 +, Hằng ngày record meeting phải viết lại issue mà nhó m gặp phải  (3-5 issue) và các solution</t>
   </si>
   <si>
-    <t>&lt;06/06/2022-12/06/2022&gt;</t>
-  </si>
-  <si>
-    <t>Hoàn thành 1/2 IT3</t>
-  </si>
-  <si>
-    <t>Hoàn thiện cart contact</t>
-  </si>
-  <si>
-    <t>Code màn hình My Orders</t>
-  </si>
-  <si>
     <t>Doing</t>
   </si>
   <si>
     <t>Code màn hình Orders List</t>
   </si>
   <si>
-    <t>Code màn hình Suppliers List 2</t>
-  </si>
-  <si>
-    <t>Code màn hình Customers List</t>
-  </si>
-  <si>
     <t>Code màn hình Feedback list</t>
   </si>
   <si>
-    <t>K hiển thị My order</t>
-  </si>
-  <si>
-    <t>Sửa lại câu lệnh sql</t>
-  </si>
-  <si>
-    <t>Lỗi phông phần ProductDetail</t>
-  </si>
-  <si>
-    <t>Customer list hiển thị 1 nửa</t>
-  </si>
-  <si>
-    <t>do bảng bên html</t>
-  </si>
-  <si>
     <t>Feedback không truy cập được</t>
   </si>
   <si>
-    <t>Không chạy đc servlet phần checkout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">add xml </t>
-  </si>
-  <si>
     <t>&lt;30/5/2022-5/6/2022&gt;</t>
   </si>
   <si>
@@ -530,12 +490,87 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Fousdqr6Si4&amp;list=PLRkQNsJPRIBc1liQHJogRpePTAR6bMNXr&amp;index=11&amp;t=176s</t>
+  </si>
+  <si>
+    <t>&lt;13/06/2022-19/06/2022&gt;</t>
+  </si>
+  <si>
+    <t>Hoàn thành IT3</t>
+  </si>
+  <si>
+    <t>Lỗi pull về bị lỗi javax</t>
+  </si>
+  <si>
+    <t>Clear and build</t>
+  </si>
+  <si>
+    <t>Lỗi ko hiển thị user details</t>
+  </si>
+  <si>
+    <t>Sửa lại câu lệnh SQL</t>
+  </si>
+  <si>
+    <t>Hoàn thiện Feedback List</t>
+  </si>
+  <si>
+    <t>Code màn hình Feedback Details</t>
+  </si>
+  <si>
+    <t>Hungnm support</t>
+  </si>
+  <si>
+    <t>Code màn hình User Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Code màn hình Product Details</t>
+  </si>
+  <si>
+    <t>Code màn hình Suppliers List</t>
+  </si>
+  <si>
+    <t>ThachDP Support</t>
+  </si>
+  <si>
+    <t>không truy cập được trang Product Detail</t>
+  </si>
+  <si>
+    <t>lỗi đường dẫn</t>
+  </si>
+  <si>
+    <t>Lỗi phông chữ không hiện tiếng việt</t>
+  </si>
+  <si>
+    <t>Sửa trong database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order List ko hiển bảng </t>
+  </si>
+  <si>
+    <t>Lỗi Bootstrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàn thiện IT3 </t>
+  </si>
+  <si>
+    <t>Làm 4 phần IT4</t>
+  </si>
+  <si>
+    <t>26/6/2022</t>
+  </si>
+  <si>
+    <t>Before 00:00 27/06/2022</t>
+  </si>
+  <si>
+    <t>Before 00:00 23/06/2022</t>
+  </si>
+  <si>
+    <t>22/6/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -679,12 +714,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,6 +724,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -839,23 +874,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -891,23 +909,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1083,7 +1084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1478,13 +1479,13 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C26:C27 C22:C25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C26:C27 C22:C25">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B37" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D26" r:id="rId1"/>
+    <hyperlink ref="B37" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1493,7 +1494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21ABDD5-61A2-41B1-A4D8-2B6BF8F056CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1527,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -1548,83 +1549,83 @@
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="21">
+      <c r="A6" s="19">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="19">
         <v>2</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1639,192 +1640,192 @@
       <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <v>1</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="22" t="s">
+      <c r="B12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <v>2</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <v>3</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <v>4</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="21">
+      <c r="A16" s="19">
         <v>5</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <v>6</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="21">
+      <c r="A18" s="19">
         <v>7</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="21">
+      <c r="A19" s="19">
         <v>8</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="22" t="s">
+      <c r="B19" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="23"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -1839,112 +1840,112 @@
       <c r="D22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="24">
+      <c r="A23" s="22">
         <v>44711</v>
       </c>
-      <c r="B23" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="25" t="s">
+      <c r="B23" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="D23" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="24">
+      <c r="A24" s="22">
         <v>44711</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="25" t="s">
+      <c r="B24" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="24">
+      <c r="A25" s="22">
         <v>44713</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="D25" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="24">
+      <c r="A26" s="22">
         <v>44715</v>
       </c>
-      <c r="B26" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="25" t="s">
+      <c r="B26" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
+      <c r="A27" s="22">
         <v>44716</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
+      <c r="A28" s="22">
         <v>44716</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="23" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2049,13 +2050,13 @@
     <mergeCell ref="E5:J25"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C28 C6:C8" xr:uid="{4046118E-C35A-48B0-AD50-610CD73C3176}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C28 C6:C8">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B37" r:id="rId1" xr:uid="{0EF85CC3-330A-42A7-AF85-71F0FE51B6C8}"/>
-    <hyperlink ref="D27" r:id="rId2" xr:uid="{70E2D1B9-04E7-489C-A5B0-449CB0311E90}"/>
+    <hyperlink ref="B37" r:id="rId1"/>
+    <hyperlink ref="D27" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
@@ -2063,11 +2064,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2097,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -2118,32 +2119,32 @@
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -2156,12 +2157,12 @@
         <v>25</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -2170,31 +2171,31 @@
         <v>7</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -2209,59 +2210,59 @@
       <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+        <v>102</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>23</v>
@@ -2269,92 +2270,92 @@
       <c r="D14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -2363,44 +2364,44 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" s="15"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -2415,82 +2416,82 @@
       <c r="D23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
-        <v>44718</v>
+        <v>44724</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+        <v>97</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
-        <v>44719</v>
+        <v>44725</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+        <v>99</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
-        <v>44720</v>
+        <v>44725</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
-        <v>44721</v>
+        <v>44727</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>65</v>
@@ -2498,30 +2499,30 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
-        <v>44722</v>
+        <v>44728</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
-        <v>44723</v>
+        <v>44729</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -2552,20 +2553,26 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="14">
-        <v>44724</v>
+        <v>113</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="B34" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
@@ -2631,13 +2638,13 @@
     <mergeCell ref="E5:J26"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C24:C30" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C8 C24:C30">
       <formula1>"Pending, In Progress, Completed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="D28" r:id="rId1" display="https://www.youtube.com/watch?v=Fousdqr6Si4&amp;list=PLRkQNsJPRIBc1liQHJogRpePTAR6bMNXr&amp;index=11&amp;t=176s" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B39" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D28" r:id="rId1" display="https://www.youtube.com/watch?v=Fousdqr6Si4&amp;list=PLRkQNsJPRIBc1liQHJogRpePTAR6bMNXr&amp;index=11&amp;t=176s"/>
+    <hyperlink ref="B39" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
